--- a/biology/Médecine/Réaction_anaphylactoïde/Réaction_anaphylactoïde.xlsx
+++ b/biology/Médecine/Réaction_anaphylactoïde/Réaction_anaphylactoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9action_anaphylacto%C3%AFde</t>
+          <t>Réaction_anaphylactoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La réaction anaphylactoïde ou pseudo-anaphylactique est une réaction allergique, ne nécessitant pas les anticorps IgE. Un mastocyte ou un polynucléaire basophile seul peut donner une réaction allergique et ce, dès le premier contact avec l'allergène.
-On utilise plutôt le terme de réaction d'hypersensibilité non allergique[1].
+On utilise plutôt le terme de réaction d'hypersensibilité non allergique.
 </t>
         </is>
       </c>
